--- a/data/trans_camb/P40_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P40_R2-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>8.321841259535482</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8.307882256113185</v>
+        <v>8.307882256113192</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>18.7881664292849</v>
@@ -655,7 +655,7 @@
         <v>13.09501423404932</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>12.14444117433557</v>
+        <v>12.14444117433556</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>11.99702795884607</v>
@@ -664,7 +664,7 @@
         <v>10.74382846752778</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>10.25642664947205</v>
+        <v>10.25642664947204</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.529518889603578</v>
+        <v>-1.038552430249648</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8626397951574513</v>
+        <v>1.773873154020215</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.483325343219532</v>
+        <v>1.998334099360859</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11.09743058540568</v>
+        <v>10.38506846268102</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>5.279256423313124</v>
+        <v>5.164000582947174</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>5.521418671875314</v>
+        <v>4.979786916353159</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>7.030802623847039</v>
+        <v>6.641204096104119</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>5.382949405468624</v>
+        <v>5.485546334658828</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>5.481336669661651</v>
+        <v>5.987943883163782</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12.14634772503771</v>
+        <v>12.97267143092828</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>15.51777122267962</v>
+        <v>15.42175783525358</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.43879780170389</v>
+        <v>14.97008083456001</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>25.90682450829049</v>
+        <v>26.53477842582443</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>20.50869886734392</v>
+        <v>20.41326830485805</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>18.83336616007099</v>
+        <v>19.06857334855096</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>17.3005857718473</v>
+        <v>17.42311996217216</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>15.82065093340549</v>
+        <v>15.68896498518794</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>14.75643777064376</v>
+        <v>15.11212064980505</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.5020480078085828</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.5012058756841415</v>
+        <v>0.5012058756841419</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.9042907447105307</v>
@@ -760,7 +760,7 @@
         <v>0.6302743920367843</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5845224862664331</v>
+        <v>0.5845224862664328</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.6440199931344766</v>
@@ -769,7 +769,7 @@
         <v>0.5767462041124358</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.5505816809826439</v>
+        <v>0.5505816809826436</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.07926373128231498</v>
+        <v>-0.05249235784664726</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.0423911486076774</v>
+        <v>0.0897232886508611</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.06743741824164209</v>
+        <v>0.08710866697205563</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.4843359539796921</v>
+        <v>0.3945640425717655</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2169130986621902</v>
+        <v>0.2169075218839793</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2225842467241357</v>
+        <v>0.1957426447016417</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3268052027639695</v>
+        <v>0.2957350514989125</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2333638645110965</v>
+        <v>0.2596518408740591</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.2478007645828486</v>
+        <v>0.2754519895437413</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.9959600157593274</v>
+        <v>0.9793423565519926</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.172863801150708</v>
+        <v>1.192818740480033</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.126997509545337</v>
+        <v>1.203363112298031</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.489741726951194</v>
+        <v>1.543347410902045</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.22000084374121</v>
+        <v>1.221071840297985</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.146277290796662</v>
+        <v>1.158505183899142</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.060738500308481</v>
+        <v>1.052777405454079</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.9604123972226113</v>
+        <v>0.9625712979904298</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.9195093195054665</v>
+        <v>0.9499665217803014</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-5.881297475197766</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-6.467378889966163</v>
+        <v>-6.46737888996616</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>1.300171698234814</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.81051214156793</v>
+        <v>-3.579177744897931</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.338054156322428</v>
+        <v>-8.043305334488579</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.357993490244497</v>
+        <v>-3.71205946050364</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.592484828372409</v>
+        <v>-4.003408438157587</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-11.38531473880287</v>
+        <v>-11.68864099510755</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-11.419739561512</v>
+        <v>-11.24914637141975</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.662000340540675</v>
+        <v>-2.181680499014278</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-8.245049255146363</v>
+        <v>-8.328600149151518</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-6.53519019415513</v>
+        <v>-6.363955683449829</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.709328863388146</v>
+        <v>6.1267125255612</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.280676818850824</v>
+        <v>0.5566907279316815</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.732929223607364</v>
+        <v>5.692634783487154</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.403613459807658</v>
+        <v>6.929805503256597</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.6245637022885258</v>
+        <v>-0.9460365999310879</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-1.814994763576663</v>
+        <v>-1.483807604397916</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.250481517809845</v>
+        <v>5.191050097708537</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-1.05308446114701</v>
+        <v>-1.008731398984681</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6747717919461279</v>
+        <v>0.6065143521471237</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.2059921383209116</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.2265196094048712</v>
+        <v>-0.2265196094048711</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.05935845285710696</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2248276465533934</v>
+        <v>-0.213786521251312</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4672340759109269</v>
+        <v>-0.4518405178441351</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2523434207636756</v>
+        <v>-0.2192030500790846</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1173920573433251</v>
+        <v>-0.1286646647511596</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.36310773820505</v>
+        <v>-0.3725430726970138</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3588098534319245</v>
+        <v>-0.359220763093032</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1127841960173907</v>
+        <v>-0.08793168366143791</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3486116263638332</v>
+        <v>-0.356507239527858</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.272612995908293</v>
+        <v>-0.2672266562780869</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.4483006440465142</v>
+        <v>0.4846424039463251</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1000524372558613</v>
+        <v>0.05434198669404375</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.4308527297568781</v>
+        <v>0.4452513970106154</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2761563759348961</v>
+        <v>0.270808367260495</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.02265925240012232</v>
+        <v>-0.03826295131142362</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.05880605667372661</v>
+        <v>-0.05623460680149327</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2620472922069393</v>
+        <v>0.260433493459347</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.05146600955578973</v>
+        <v>-0.05208781641935542</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.03597914551241153</v>
+        <v>0.03155499369513398</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-9.103737000134259</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-0.9795413197298486</v>
+        <v>-0.979541319729843</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-1.188359132852457</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.002173065412828</v>
+        <v>-4.274492442329243</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.129285324620833</v>
+        <v>-4.838599586681812</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.849708686347263</v>
+        <v>1.126424047600808</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-10.70855268610373</v>
+        <v>-10.57555930648105</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-16.26528896698961</v>
+        <v>-15.63509355673192</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-7.177308622179833</v>
+        <v>-6.964505009143031</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-5.59308375932817</v>
+        <v>-5.566974056399916</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-9.282595490906107</v>
+        <v>-8.780920489712273</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.406414214671881</v>
+        <v>-1.389307793565157</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.833582135205421</v>
+        <v>7.627093555994654</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.32306755536404</v>
+        <v>6.649972515444172</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13.49391939177866</v>
+        <v>13.32038656913009</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.069351550146078</v>
+        <v>3.128247111511191</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-2.697841394560054</v>
+        <v>-2.498017907841755</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.618206040388729</v>
+        <v>5.068090980022431</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.994818693796858</v>
+        <v>3.287006952331033</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1547982224284038</v>
+        <v>-0.01455227359298644</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>7.231956951410473</v>
+        <v>7.692359344270579</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.3053919937288057</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.03285948139402888</v>
+        <v>-0.03285948139402869</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.05162855572164992</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2164219538841677</v>
+        <v>-0.2268321459421332</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2717300290220437</v>
+        <v>-0.2526396961733387</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.09313830269202314</v>
+        <v>0.04879528491765163</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3342793919374447</v>
+        <v>-0.3165898866591854</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4827839068366268</v>
+        <v>-0.4723260793374707</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2165792569321821</v>
+        <v>-0.2175514534754862</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2209826576586191</v>
+        <v>-0.2217958550751307</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3581126138664109</v>
+        <v>-0.3399320722798856</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.05801850494879582</v>
+        <v>-0.05446677473854018</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.5651565989786103</v>
+        <v>0.5901061633706808</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.4865159206829772</v>
+        <v>0.5011498371353805</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.072987617827655</v>
+        <v>0.9979795085655107</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1153996750670216</v>
+        <v>0.117497067102186</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.09706913787243662</v>
+        <v>-0.09102101240881059</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1752978788126894</v>
+        <v>0.192619203043012</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2015438332655513</v>
+        <v>0.1563837529940793</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.01706624299589045</v>
+        <v>-0.0002457219645196525</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.3511766021431267</v>
+        <v>0.381399467244837</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>5.271106039948348</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6.954136804108527</v>
+        <v>6.954136804108524</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>6.846272367990863</v>
@@ -1297,7 +1297,7 @@
         <v>5.536495596326551</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>2.066207072909498</v>
+        <v>2.066207072909504</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>6.243074195298062</v>
@@ -1306,7 +1306,7 @@
         <v>5.434571438863387</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>4.656136527373855</v>
+        <v>4.656136527373852</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.1092859640258505</v>
+        <v>-0.1431829490946942</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.1660104243476827</v>
+        <v>-0.001525546813587772</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.369471237619129</v>
+        <v>1.494130993547677</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.2422999805144542</v>
+        <v>0.0147415297161409</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.053039091406454</v>
+        <v>-1.1321064608228</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-4.301459357539369</v>
+        <v>-3.911444940847274</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.006189358142755</v>
+        <v>1.937081894332781</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.294431177661545</v>
+        <v>0.8185045424413044</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.6730168525555181</v>
+        <v>0.2150517289261312</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>10.72215650812177</v>
+        <v>11.31230906913839</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.51711401892288</v>
+        <v>10.64804887006178</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>12.64787738375005</v>
+        <v>13.21867829150763</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12.94125086645861</v>
+        <v>13.75550494857268</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>12.47356489385058</v>
+        <v>12.49295041319153</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>7.51549412076696</v>
+        <v>7.852969664581065</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>10.53358496553926</v>
+        <v>10.41577631631765</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>9.917672064699337</v>
+        <v>9.762078193913288</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>9.130305918406449</v>
+        <v>9.043888951216205</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.4094855465719865</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.5402316873508869</v>
+        <v>0.5402316873508867</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.2554045916398145</v>
@@ -1402,7 +1402,7 @@
         <v>0.2065425272162209</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07708118306350897</v>
+        <v>0.07708118306350918</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.3126108274455613</v>
@@ -1411,7 +1411,7 @@
         <v>0.272126491079446</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.2331477485271742</v>
+        <v>0.2331477485271741</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.0382181266381891</v>
+        <v>-0.01167736559213937</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.02101551095413612</v>
+        <v>-0.004411936524900953</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.09803348739226685</v>
+        <v>0.08615306401436475</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.00888312038325117</v>
+        <v>0.00168350708953025</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.03575973394883191</v>
+        <v>-0.03553915933879198</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1456703468210313</v>
+        <v>-0.1318317065766358</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.09157504769932077</v>
+        <v>0.08645332661816058</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.05441812910704892</v>
+        <v>0.03685892131569551</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.03874791441783668</v>
+        <v>0.004373615964573527</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.9758550255921286</v>
+        <v>1.073926559292394</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.9862231760713315</v>
+        <v>1.037989344372458</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.216761379037817</v>
+        <v>1.252686791386922</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5384167722393334</v>
+        <v>0.5772074995069542</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5089774376152841</v>
+        <v>0.5373550156304725</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3189882733549442</v>
+        <v>0.3325246218575693</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.58061005788603</v>
+        <v>0.5744270253015806</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.5567548153658617</v>
+        <v>0.5446346388839686</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.5145192683126606</v>
+        <v>0.4906017326719427</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>-10.20731682763604</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-14.37344057849867</v>
+        <v>-14.37344057849866</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-14.59898538412626</v>
+        <v>-14.05393122545053</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-16.66460801674593</v>
+        <v>-16.39649077783435</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-18.54101311137293</v>
+        <v>-19.36232547745903</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-16.26593858048219</v>
+        <v>-17.11847517390784</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-20.76601144122569</v>
+        <v>-20.37724053457869</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-24.78295714459031</v>
+        <v>-24.23163656079236</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-12.9951265508034</v>
+        <v>-13.34360899219165</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-16.07280322912401</v>
+        <v>-15.75725330852416</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-19.76130809460616</v>
+        <v>-19.89167542438259</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.9061275928835572</v>
+        <v>1.416664222855776</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-1.381201272902494</v>
+        <v>-1.118775638165762</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-4.548880202417967</v>
+        <v>-5.219227166294462</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.785701448370661</v>
+        <v>1.784342194461815</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-2.112760584086151</v>
+        <v>-1.121897010492899</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-8.864244109431302</v>
+        <v>-9.350620117766276</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-0.1586415960266324</v>
+        <v>-0.8930684935270179</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-3.786906077239431</v>
+        <v>-3.371244673692387</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-9.258848339993607</v>
+        <v>-9.557619662839931</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>-0.2960637850128495</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.4408782718836659</v>
+        <v>-0.440878271883666</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.2182296812867278</v>
@@ -1625,7 +1625,7 @@
         <v>-0.3203540914853063</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.451106845784993</v>
+        <v>-0.4511068457849928</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.5161399734849891</v>
+        <v>-0.4947137990478798</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5821515745128573</v>
+        <v>-0.5718873660803748</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.6426224007588135</v>
+        <v>-0.6473588875605613</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.3708571667543427</v>
+        <v>-0.3909931341734331</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.4702736244196452</v>
+        <v>-0.4697482228274777</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.560873467428099</v>
+        <v>-0.5498789399215617</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.367153373338881</v>
+        <v>-0.3768352508636917</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.4545898845189108</v>
+        <v>-0.4602405848651888</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.5538023970689699</v>
+        <v>-0.5497200018199563</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.04798576943300131</v>
+        <v>0.0714470920946803</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.06586753227729483</v>
+        <v>-0.04581097258084101</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.2275087379412596</v>
+        <v>-0.2340195991160212</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.09126987197906929</v>
+        <v>0.05490158042131986</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.06645359797458472</v>
+        <v>-0.03325710853509763</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.2675795103617867</v>
+        <v>-0.2784037318709122</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.005112760434617412</v>
+        <v>-0.03007826702755978</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.130142044711333</v>
+        <v>-0.1245081146400301</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.3254218677888993</v>
+        <v>-0.3182932182418955</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>5.29341654959529</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>7.753198708572259</v>
+        <v>7.753198708572256</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>-8.646603810763093</v>
@@ -1725,7 +1725,7 @@
         <v>-6.691960714603217</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-1.818989468453697</v>
+        <v>-1.818989468453708</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-2.287830805131732</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.953769573066327</v>
+        <v>-1.995914377323848</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.430221548175524</v>
+        <v>-1.187879660243483</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1.075987442383903</v>
+        <v>1.971591338927116</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-16.95438090247672</v>
+        <v>-15.64582111482283</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-13.97038910029785</v>
+        <v>-15.12648305757923</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-8.475176463170788</v>
+        <v>-8.949280269014393</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-7.774018524517985</v>
+        <v>-7.392240506740509</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-6.209828161389307</v>
+        <v>-6.129609523545821</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-2.185964746124313</v>
+        <v>-2.104631656586307</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>10.61845936265383</v>
+        <v>11.26570056644604</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>11.59245034277585</v>
+        <v>12.09711499640207</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>13.17634379793001</v>
+        <v>14.0451932432813</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>-1.327574399095649</v>
+        <v>-0.3485126016841031</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>1.496655931762398</v>
+        <v>1.281328460830013</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>5.864437240206038</v>
+        <v>5.468915330433209</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>2.318544757681419</v>
+        <v>2.947111717295882</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>4.354175940686318</v>
+        <v>4.41130087183887</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>7.483928062067975</v>
+        <v>7.705188319710143</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>0.3674592632306504</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.5382128269029977</v>
+        <v>0.5382128269029974</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>-0.2453576131282309</v>
@@ -1830,7 +1830,7 @@
         <v>-0.1898923026910412</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.05161597825606869</v>
+        <v>-0.05161597825606901</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.0916514541688646</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.1152243925348525</v>
+        <v>-0.1278025519587624</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.08706110387659931</v>
+        <v>-0.06757179697913201</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.04567567356492599</v>
+        <v>0.1116504539540976</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.4157596652625943</v>
+        <v>-0.4033129475374649</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.3624878804920382</v>
+        <v>-0.39268116530619</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.2087118502340387</v>
+        <v>-0.2308089303160459</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.2748875892673332</v>
+        <v>-0.2693210298029204</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.2315083802673379</v>
+        <v>-0.2282081130361091</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.07717678465026162</v>
+        <v>-0.07579763940210468</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.9215547115283055</v>
+        <v>0.9736886553900017</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.9703814678293435</v>
+        <v>1.096196846841684</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.123171739963495</v>
+        <v>1.289534371073904</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>-0.04201479211783338</v>
+        <v>-0.006065157715237753</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.0510790194333607</v>
+        <v>0.04165516336917048</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.190264341473989</v>
+        <v>0.1740649598894241</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1026680297403829</v>
+        <v>0.1369604936899693</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.1964911432677026</v>
+        <v>0.192123645807027</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.3383560219584324</v>
+        <v>0.3539378636913637</v>
       </c>
     </row>
     <row r="40">
@@ -1948,7 +1948,7 @@
         <v>-0.4727240220100931</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>0.0982298928749098</v>
+        <v>0.09822989287491257</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-2.460444505156878</v>
+        <v>-2.260957764418244</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-2.778061146983418</v>
+        <v>-2.54779249172467</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-2.302138492905343</v>
+        <v>-2.263987429343255</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-9.107937046573152</v>
+        <v>-8.677273204247104</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-7.289079787513285</v>
+        <v>-6.74779158297009</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-6.438341477996051</v>
+        <v>-6.243203800782797</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-4.268391489987151</v>
+        <v>-4.554706576970852</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-3.908870891054554</v>
+        <v>-4.007991192810571</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-2.855234921619721</v>
+        <v>-2.979485618809128</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>6.103064655662191</v>
+        <v>5.749628991006218</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>5.450823014458466</v>
+        <v>5.539921311634056</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>5.763646831235484</v>
+        <v>5.890380835634947</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1.206564021023121</v>
+        <v>1.062331544530088</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>2.746109715523874</v>
+        <v>3.27829556899126</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>2.870870224529177</v>
+        <v>2.783730950259964</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>1.927022954720122</v>
+        <v>2.200521801204367</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>2.568580873123127</v>
+        <v>2.598566041384467</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>3.469732597912726</v>
+        <v>3.301828325004105</v>
       </c>
     </row>
     <row r="43">
@@ -2053,7 +2053,7 @@
         <v>-0.02204359213223528</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.004580557773477066</v>
+        <v>0.004580557773477195</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.1645691855944309</v>
+        <v>-0.1472589455499219</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.1704717486433839</v>
+        <v>-0.1562478942659324</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.1437498784173252</v>
+        <v>-0.140587838745856</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.2870004077518242</v>
+        <v>-0.2830019290891956</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.2350553735151536</v>
+        <v>-0.2214872700441872</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.1985963906370504</v>
+        <v>-0.2007560254985782</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.1896550150338925</v>
+        <v>-0.1945251457263635</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.1687239786802331</v>
+        <v>-0.1726779138600011</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.1257544902962458</v>
+        <v>-0.1279585059066695</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.4887109775633601</v>
+        <v>0.4629821352350658</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.4516977039003481</v>
+        <v>0.452057033949224</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.4798380120585991</v>
+        <v>0.4884853971822687</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.04950345723812823</v>
+        <v>0.03647325846803955</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.1079914225775944</v>
+        <v>0.1315246471616326</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.1129432316494746</v>
+        <v>0.1089267079973083</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.09703671908480142</v>
+        <v>0.1101498461152708</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.1313854790340939</v>
+        <v>0.1295635113927402</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.1806161957610652</v>
+        <v>0.1691232999362546</v>
       </c>
     </row>
     <row r="46">
@@ -2153,7 +2153,7 @@
         <v>-6.866561942000438</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>2.076242658349892</v>
+        <v>2.076242658349897</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>-5.233793431610115</v>
@@ -2162,7 +2162,7 @@
         <v>-5.552573347606849</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>1.40070293405134</v>
+        <v>1.400702934051337</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-6.513918521380795</v>
+        <v>-6.759595330381591</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-7.854929709492126</v>
+        <v>-7.689621601891663</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-3.095072454615463</v>
+        <v>-3.023121057707268</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-11.78702795070045</v>
+        <v>-11.28224415678381</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-11.53605407137676</v>
+        <v>-11.10680656367488</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-2.118124755151304</v>
+        <v>-2.298929459794152</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-8.094768384722824</v>
+        <v>-7.978816457806678</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-8.41462456625308</v>
+        <v>-8.456728854385691</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-1.455438069031312</v>
+        <v>-1.565553470949598</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>1.201221792500855</v>
+        <v>0.9709929592646702</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-0.2418675892162421</v>
+        <v>-0.3945164772647351</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>4.394917633635806</v>
+        <v>4.574292128476913</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>-2.871839036625535</v>
+        <v>-3.331253110059083</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-2.537720641150696</v>
+        <v>-2.290610166543634</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>6.286853293311455</v>
+        <v>6.357215082106725</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-2.268588302205669</v>
+        <v>-2.019599558034834</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-2.90013121627568</v>
+        <v>-2.547642306078441</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>4.11626024436169</v>
+        <v>4.24011288267381</v>
       </c>
     </row>
     <row r="49">
@@ -2258,7 +2258,7 @@
         <v>-0.2614408136192827</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.07905187114818624</v>
+        <v>0.07905187114818645</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>-0.2380329354646985</v>
@@ -2267,7 +2267,7 @@
         <v>-0.2525310466651913</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.06370397216912814</v>
+        <v>0.06370397216912801</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.3353444041903472</v>
+        <v>-0.3556482401638409</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.4022892415028665</v>
+        <v>-0.4013864909496412</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.1624430950336506</v>
+        <v>-0.1519657425029392</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.4141864570610649</v>
+        <v>-0.4012250613140755</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.4004102027660529</v>
+        <v>-0.3950326508233604</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.07279918183693275</v>
+        <v>-0.08288789306939966</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.3446602804320288</v>
+        <v>-0.3455426734075026</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.3650593805025997</v>
+        <v>-0.3583832401483129</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.0613022061080031</v>
+        <v>-0.06525794800346285</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.0752116689640072</v>
+        <v>0.06805616419754405</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.02325658540454228</v>
+        <v>-0.02701453053733458</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.2830867546309516</v>
+        <v>0.3005877784047449</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>-0.1178067676239696</v>
+        <v>-0.138630401206543</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.1076014084007</v>
+        <v>-0.1011390009082111</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.2708042438858462</v>
+        <v>0.2673107655830987</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.1142154994390113</v>
+        <v>-0.1030480344930682</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.1414819917861032</v>
+        <v>-0.1235025576186656</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.1979075773347411</v>
+        <v>0.2084891246717308</v>
       </c>
     </row>
     <row r="52">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-0.8914713927311002</v>
+        <v>-0.6843529292768167</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-1.760501743386162</v>
+        <v>-1.834226969289809</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>0.9154125275958738</v>
+        <v>0.7473865882637459</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-3.796622360358629</v>
+        <v>-3.713749422863734</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-5.495842349595098</v>
+        <v>-5.715907040501459</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-3.03801188426237</v>
+        <v>-3.170232681927631</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-1.825778004775704</v>
+        <v>-1.944754091686522</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-3.163975933567037</v>
+        <v>-3.186013814407793</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-0.5377705363798584</v>
+        <v>-0.5579760717311144</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>2.722628221167106</v>
+        <v>2.888640854896183</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>1.733765694984461</v>
+        <v>1.67052475818135</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>4.637442914877277</v>
+        <v>4.593148181167865</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>0.6465729781685668</v>
+        <v>0.6925702741390051</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>-1.222687269093443</v>
+        <v>-1.183175074588782</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>1.045504166644388</v>
+        <v>0.8726345974158618</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>1.014184268480777</v>
+        <v>1.133221857841843</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>-0.3508442115570067</v>
+        <v>-0.2934912833438588</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>2.267265888717215</v>
+        <v>2.278630119568911</v>
       </c>
     </row>
     <row r="55">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.05341750569689874</v>
+        <v>-0.04189466764617766</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.1049901594508982</v>
+        <v>-0.1065944983199395</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.05437941690908416</v>
+        <v>0.04471392613172714</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.1272229724088542</v>
+        <v>-0.1244541322868652</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.1873434042707132</v>
+        <v>-0.193058163248279</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.1014436992775376</v>
+        <v>-0.1066809130048933</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.08032688940341778</v>
+        <v>-0.08440431398286971</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.1385267202314794</v>
+        <v>-0.1376029724026737</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.02245475097185204</v>
+        <v>-0.02417523647823836</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.1788961915807888</v>
+        <v>0.18913034193244</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.1120905460601596</v>
+        <v>0.1094579758080438</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.3057519489909717</v>
+        <v>0.3041698635184857</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.02264507144609376</v>
+        <v>0.02689979919606499</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>-0.04636960621960532</v>
+        <v>-0.04481757349698404</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.03782190894347986</v>
+        <v>0.03211605878497458</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.04699839066712677</v>
+        <v>0.05251560653524172</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>-0.01655775429077338</v>
+        <v>-0.01341921240016025</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.1051694068995099</v>
+        <v>0.1031442440740555</v>
       </c>
     </row>
     <row r="58">
